--- a/target/classes/Student.xlsx
+++ b/target/classes/Student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ExcelUtil\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE4D57-F782-4E07-8F3E-27235D95652C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB843914-81C0-4FBA-8615-87AB426F958F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="852" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
+    <t>出生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +381,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
